--- a/resource/files/Anexo2.xlsx
+++ b/resource/files/Anexo2.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\restantes\logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F79448CD-5596-4DAF-99A6-B7ECF5EA19E7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9630"/>
   </bookViews>
   <sheets>
     <sheet name="Anexo 2 Matrícula" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>curso</t>
   </si>
@@ -30,14 +29,11 @@
   <si>
     <t>rol</t>
   </si>
-  <si>
-    <t>instancia</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -348,38 +344,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="35.28515625" customWidth="1"/>
-    <col min="4" max="4" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
-    <col min="6" max="14" width="22.42578125" customWidth="1"/>
-    <col min="15" max="27" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="35.28515625" customWidth="1"/>
+    <col min="3" max="3" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="5" max="13" width="22.42578125" customWidth="1"/>
+    <col min="14" max="26" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>3</v>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -401,7 +394,6 @@
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
